--- a/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第32章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第32章 角色统计.xlsx
@@ -43,22 +43,22 @@
     <t>米勒娃</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
+    <t>邓布利多</t>
+  </si>
+  <si>
     <t>伏地魔</t>
   </si>
   <si>
-    <t>邓布利多</t>
-  </si>
-  <si>
     <t>芙蓉</t>
   </si>
   <si>
+    <t>费尔奇</t>
+  </si>
+  <si>
     <t>皮皮鬼</t>
-  </si>
-  <si>
-    <t>斯普劳特</t>
-  </si>
-  <si>
-    <t>费尔奇</t>
   </si>
   <si>
     <t>神秘人</t>
@@ -521,7 +521,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -543,29 +543,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
